--- a/biology/Botanique/Chrysanthemum_coccineum/Chrysanthemum_coccineum.xlsx
+++ b/biology/Botanique/Chrysanthemum_coccineum/Chrysanthemum_coccineum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tanacetum coccineum
 Le pyrèthre rose (Tanacetum coccineum) est une espèce de plante à fleurs de la famille des Asteraceae.
@@ -513,7 +525,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pyrèthre rose est surtout cultivé dans les jardins comme plante d'ornement pour ses fleurs aux différentes teintes de rose ou de rouge. La fleur contient de la pyréthrine, un insecticide naturel.
 </t>
@@ -544,7 +558,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysanthemum coccineum Willd.
 Chrysanthemum marschallii Asch. ex O.Hoffm.
